--- a/0 - Field Data Sheets/Weir Calibration Field Form 2019 CURRENT 08_31_2019.xlsx
+++ b/0 - Field Data Sheets/Weir Calibration Field Form 2019 CURRENT 08_31_2019.xlsx
@@ -17,7 +17,7 @@
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="3" state="veryHidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$W$454</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$P$593</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -1957,12 +1957,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2166,7 +2168,7 @@
         <xdr:cNvPr id="2" name="EsriDoNotEdit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2509,19 +2511,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:W593"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A455" sqref="A455:W593"/>
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B442" sqref="B442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
@@ -2590,7 +2592,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>43588.755538854166</v>
       </c>
@@ -2619,7 +2621,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>43588.760185335646</v>
       </c>
@@ -2648,7 +2650,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43588.762669606484</v>
       </c>
@@ -2677,7 +2679,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>43591.435261481485</v>
       </c>
@@ -2709,7 +2711,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>43591.44535303241</v>
       </c>
@@ -2741,7 +2743,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>43591.464841817127</v>
       </c>
@@ -2773,7 +2775,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>43591.470591574078</v>
       </c>
@@ -2805,7 +2807,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>43591.472597476852</v>
       </c>
@@ -2837,7 +2839,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>43591.479208553239</v>
       </c>
@@ -2869,7 +2871,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>43591.485304733797</v>
       </c>
@@ -2901,7 +2903,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>43591.492769594908</v>
       </c>
@@ -2933,7 +2935,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>43591.502019652777</v>
       </c>
@@ -2965,7 +2967,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>43591.512494085648</v>
       </c>
@@ -2997,7 +2999,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>43591.521164178237</v>
       </c>
@@ -3029,7 +3031,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>43591.527513136578</v>
       </c>
@@ -3061,7 +3063,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>43591.537957824075</v>
       </c>
@@ -3093,7 +3095,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>43591.548731967589</v>
       </c>
@@ -3125,7 +3127,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>43591.560089768522</v>
       </c>
@@ -3157,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>43591.572355104166</v>
       </c>
@@ -3186,7 +3188,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>43591.577724270828</v>
       </c>
@@ -3218,7 +3220,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>43591.58141392361</v>
       </c>
@@ -3250,7 +3252,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>43591.583598541663</v>
       </c>
@@ -3282,7 +3284,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>43591.6724153588</v>
       </c>
@@ -3305,7 +3307,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>43591.674202650465</v>
       </c>
@@ -3328,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>43591.704277094905</v>
       </c>
@@ -3348,7 +3350,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>43591.755216921301</v>
       </c>
@@ -3368,7 +3370,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>43591.757524560184</v>
       </c>
@@ -3408,7 +3410,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>43591.776427210643</v>
       </c>
@@ -3431,7 +3433,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>43592.481644421292</v>
       </c>
@@ -3460,7 +3462,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>43592.482017627313</v>
       </c>
@@ -3489,7 +3491,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>43592.50501202546</v>
       </c>
@@ -3521,7 +3523,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>43592.532280358791</v>
       </c>
@@ -3553,7 +3555,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>43592.545401550931</v>
       </c>
@@ -3594,7 +3596,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>43592.637291597217</v>
       </c>
@@ -3626,7 +3628,7 @@
         <v>14200</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>43592.563986909721</v>
       </c>
@@ -3670,7 +3672,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>43592.580991099538</v>
       </c>
@@ -3702,7 +3704,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>43592.581140219903</v>
       </c>
@@ -3746,7 +3748,7 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>43592.640366712963</v>
       </c>
@@ -3778,7 +3780,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>43592.657211875005</v>
       </c>
@@ -3810,7 +3812,7 @@
         <v>4090</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>43592.681611643522</v>
       </c>
@@ -3837,7 +3839,7 @@
       </c>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>43592.691540694446</v>
       </c>
@@ -3881,7 +3883,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>43592.702423842595</v>
       </c>
@@ -3925,7 +3927,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>43593.43748443287</v>
       </c>
@@ -3957,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>43593.44123866898</v>
       </c>
@@ -3986,7 +3988,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>43593.460052071758</v>
       </c>
@@ -4030,7 +4032,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>43593.476238275463</v>
       </c>
@@ -4074,7 +4076,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>43593.518983738424</v>
       </c>
@@ -4118,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>43593.527186284722</v>
       </c>
@@ -4147,7 +4149,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>43593.548600451388</v>
       </c>
@@ -4176,7 +4178,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>43593.553772789353</v>
       </c>
@@ -4220,7 +4222,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>43593.598725358795</v>
       </c>
@@ -4243,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>43593.610852187499</v>
       </c>
@@ -4284,7 +4286,7 @@
         <v>6250</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>43593.612856157408</v>
       </c>
@@ -4325,7 +4327,7 @@
         <v>7580</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>43593.617690162035</v>
       </c>
@@ -4366,7 +4368,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>43593.618488009262</v>
       </c>
@@ -4395,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>43593.619830208336</v>
       </c>
@@ -4436,7 +4438,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>43593.656584456017</v>
       </c>
@@ -4477,7 +4479,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>43593.658092847225</v>
       </c>
@@ -4521,7 +4523,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>43593.660192870375</v>
       </c>
@@ -4609,7 +4611,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>43593.691000405088</v>
       </c>
@@ -4629,7 +4631,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>43594.407145740741</v>
       </c>
@@ -4673,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>43594.410411932869</v>
       </c>
@@ -4717,7 +4719,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>43594.419389386574</v>
       </c>
@@ -4761,7 +4763,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>43594.424918101853</v>
       </c>
@@ -4805,7 +4807,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>43594.431594340276</v>
       </c>
@@ -4837,7 +4839,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>43594.432673472227</v>
       </c>
@@ -4925,7 +4927,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>43594.444414444442</v>
       </c>
@@ -4969,7 +4971,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>43594.445713379631</v>
       </c>
@@ -5001,7 +5003,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>43594.461393437501</v>
       </c>
@@ -5033,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>43594.467428356482</v>
       </c>
@@ -5077,7 +5079,7 @@
         <v>5570</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>43594.491857604167</v>
       </c>
@@ -5121,7 +5123,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>43594.514163171298</v>
       </c>
@@ -5153,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>43594.530017488425</v>
       </c>
@@ -5197,7 +5199,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>43594.584730694449</v>
       </c>
@@ -5220,7 +5222,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>43594.611498634258</v>
       </c>
@@ -5246,7 +5248,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>43594.624838090276</v>
       </c>
@@ -5290,7 +5292,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>43594.648807557867</v>
       </c>
@@ -5334,7 +5336,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>43594.653585208333</v>
       </c>
@@ -5363,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>43594.667883368056</v>
       </c>
@@ -5389,7 +5391,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>43594.676933946757</v>
       </c>
@@ -5409,7 +5411,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>43594.68904351852</v>
       </c>
@@ -5453,7 +5455,7 @@
         <v>3890</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>43594.893515358795</v>
       </c>
@@ -5497,7 +5499,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>43594.895805115739</v>
       </c>
@@ -5541,7 +5543,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>43594.896885995375</v>
       </c>
@@ -5585,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>43594.89877886574</v>
       </c>
@@ -5629,7 +5631,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>43594.900322071757</v>
       </c>
@@ -5711,7 +5713,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>43594.903644548613</v>
       </c>
@@ -5752,7 +5754,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>43594.905283796295</v>
       </c>
@@ -5793,7 +5795,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>43594.907106331018</v>
       </c>
@@ -5837,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>43594.908273356486</v>
       </c>
@@ -5878,7 +5880,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>43594.909638333338</v>
       </c>
@@ -5919,7 +5921,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>43594.91069650463</v>
       </c>
@@ -5960,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>43594.912148344913</v>
       </c>
@@ -6001,7 +6003,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>43594.913895949074</v>
       </c>
@@ -6042,7 +6044,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>43595.442240902776</v>
       </c>
@@ -6062,7 +6064,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>43595.448872152774</v>
       </c>
@@ -6103,7 +6105,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>43595.470052662036</v>
       </c>
@@ -6138,7 +6140,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>43595.470242951385</v>
       </c>
@@ -6164,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>43595.472295949075</v>
       </c>
@@ -6208,7 +6210,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>43595.474870532409</v>
       </c>
@@ -6252,7 +6254,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>43595.481380717596</v>
       </c>
@@ -6287,7 +6289,7 @@
         <v>7030</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>43595.490416296292</v>
       </c>
@@ -6328,7 +6330,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>43595.500877777777</v>
       </c>
@@ -6366,7 +6368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>43595.509428749996</v>
       </c>
@@ -6445,7 +6447,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>43595.516432615739</v>
       </c>
@@ -6486,7 +6488,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>43595.524782893517</v>
       </c>
@@ -6530,7 +6532,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>43595.537118668981</v>
       </c>
@@ -6574,7 +6576,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>43595.554605081023</v>
       </c>
@@ -6603,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>43595.554936168977</v>
       </c>
@@ -6632,7 +6634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>43595.556602696757</v>
       </c>
@@ -6661,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>43595.5592850463</v>
       </c>
@@ -6690,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>43595.568305081018</v>
       </c>
@@ -6725,7 +6727,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>43595.569374467595</v>
       </c>
@@ -6766,7 +6768,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>43595.586062511575</v>
       </c>
@@ -6801,7 +6803,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>43595.587130358792</v>
       </c>
@@ -6836,7 +6838,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>43595.588972465281</v>
       </c>
@@ -6871,7 +6873,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>43595.590072256949</v>
       </c>
@@ -6906,7 +6908,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>43595.594992129627</v>
       </c>
@@ -6950,7 +6952,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>43595.619344803243</v>
       </c>
@@ -6994,7 +6996,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>43595.663596446757</v>
       </c>
@@ -7029,7 +7031,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>43595.682554699073</v>
       </c>
@@ -7070,7 +7072,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>43595.689118402777</v>
       </c>
@@ -7105,7 +7107,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>43595.691901261569</v>
       </c>
@@ -7125,7 +7127,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>43595.693264699075</v>
       </c>
@@ -7154,7 +7156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>43595.707292939813</v>
       </c>
@@ -7183,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>43595.708949965279</v>
       </c>
@@ -7212,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>43595.711790578702</v>
       </c>
@@ -7241,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>43595.725159085647</v>
       </c>
@@ -7264,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>43598.523171504625</v>
       </c>
@@ -7308,7 +7310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>43598.531430370371</v>
       </c>
@@ -7352,7 +7354,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>43598.538723784717</v>
       </c>
@@ -7396,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>43598.55321135417</v>
       </c>
@@ -7440,7 +7442,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="139" spans="1:15" s="11" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" s="11" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10">
         <v>43598.558324872683</v>
       </c>
@@ -7469,7 +7471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>43598.568272129633</v>
       </c>
@@ -7513,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>43598.660832187496</v>
       </c>
@@ -7557,7 +7559,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="142" spans="1:15" s="11" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" s="11" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10">
         <v>43598.669797893519</v>
       </c>
@@ -7589,7 +7591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <v>43599.412810810187</v>
       </c>
@@ -7630,7 +7632,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <v>43599.427670717589</v>
       </c>
@@ -7674,7 +7676,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>43599.433456574072</v>
       </c>
@@ -7718,7 +7720,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>43599.459267349535</v>
       </c>
@@ -7762,7 +7764,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <v>43599.470011574071</v>
       </c>
@@ -7806,7 +7808,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <v>43599.485035810183</v>
       </c>
@@ -7832,7 +7834,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>43599.500831736106</v>
       </c>
@@ -7858,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>43599.518437384264</v>
       </c>
@@ -7890,7 +7892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <v>43599.539609108797</v>
       </c>
@@ -7934,7 +7936,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
         <v>43599.569834490743</v>
       </c>
@@ -7978,7 +7980,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="153" spans="1:15" s="11" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" s="11" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10">
         <v>43599.624617476853</v>
       </c>
@@ -8007,7 +8009,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="154" spans="1:15" s="11" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" s="11" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10">
         <v>43599.639232141199</v>
       </c>
@@ -8039,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <v>43599.738793206023</v>
       </c>
@@ -8083,7 +8085,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="156" spans="1:15" s="11" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" s="11" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10">
         <v>43600.422265266199</v>
       </c>
@@ -8115,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <v>43600.482206006942</v>
       </c>
@@ -8159,7 +8161,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <v>43600.493555451394</v>
       </c>
@@ -8191,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <v>43600.498960439814</v>
       </c>
@@ -8235,7 +8237,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <v>43600.528849884256</v>
       </c>
@@ -8279,7 +8281,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <v>43600.601932974532</v>
       </c>
@@ -8367,7 +8369,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <v>43600.686218657407</v>
       </c>
@@ -8411,7 +8413,7 @@
         <v>9850</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <v>43600.725389861109</v>
       </c>
@@ -8455,7 +8457,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <v>43601.407068912042</v>
       </c>
@@ -8490,7 +8492,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <v>43601.40923740741</v>
       </c>
@@ -8513,7 +8515,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <v>43601.414449374999</v>
       </c>
@@ -8536,7 +8538,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <v>43601.415471493056</v>
       </c>
@@ -8565,7 +8567,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <v>43601.417819421295</v>
       </c>
@@ -8594,7 +8596,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>43601.419731273148</v>
       </c>
@@ -8623,7 +8625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <v>43601.427588611114</v>
       </c>
@@ -8652,7 +8654,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <v>43602.442062349539</v>
       </c>
@@ -8687,7 +8689,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <v>43602.451806273151</v>
       </c>
@@ -8725,7 +8727,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <v>43602.47989505787</v>
       </c>
@@ -8751,7 +8753,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <v>43602.489967141199</v>
       </c>
@@ -8789,7 +8791,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <v>43602.509337268522</v>
       </c>
@@ -8827,7 +8829,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <v>43602.522517500001</v>
       </c>
@@ -8862,7 +8864,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <v>43606.707793877315</v>
       </c>
@@ -8903,7 +8905,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
         <v>43606.723546145833</v>
       </c>
@@ -8944,7 +8946,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <v>43608.481453252316</v>
       </c>
@@ -8973,7 +8975,7 @@
         <v>9100</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <v>43608.482445162037</v>
       </c>
@@ -9002,7 +9004,7 @@
         <v>8050</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <v>43608.483487696758</v>
       </c>
@@ -9031,7 +9033,7 @@
         <v>7240</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <v>43608.526771817131</v>
       </c>
@@ -9063,7 +9065,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
         <v>43619.387044270828</v>
       </c>
@@ -9086,7 +9088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <v>43619.417066539347</v>
       </c>
@@ -9115,7 +9117,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
         <v>43619.424325891203</v>
       </c>
@@ -9150,7 +9152,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <v>43619.430370590278</v>
       </c>
@@ -9179,7 +9181,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="7">
         <v>43619.448148344905</v>
       </c>
@@ -9202,7 +9204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
         <v>43619.449386782406</v>
       </c>
@@ -9246,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="7">
         <v>43619.457925891205</v>
       </c>
@@ -9290,7 +9292,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
         <v>43619.481042361112</v>
       </c>
@@ -9319,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
         <v>43619.482240219906</v>
       </c>
@@ -9348,7 +9350,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="7">
         <v>43619.485708449072</v>
       </c>
@@ -9377,7 +9379,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
         <v>43619.502512523148</v>
       </c>
@@ -9406,7 +9408,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="7">
         <v>43619.50333712963</v>
       </c>
@@ -9429,7 +9431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
         <v>43619.512569479164</v>
       </c>
@@ -9458,7 +9460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
         <v>43619.559027557872</v>
       </c>
@@ -9487,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
         <v>43619.560911979162</v>
       </c>
@@ -9510,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="7">
         <v>43619.580106157402</v>
       </c>
@@ -9539,7 +9541,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
         <v>43619.586162476851</v>
       </c>
@@ -9562,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="7">
         <v>43619.593100185186</v>
       </c>
@@ -9594,7 +9596,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
         <v>43619.603138240738</v>
       </c>
@@ -9623,7 +9625,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="7">
         <v>43619.624149479168</v>
       </c>
@@ -9684,7 +9686,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
         <v>43619.657319212958</v>
       </c>
@@ -9716,7 +9718,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
         <v>43619.669281388888</v>
       </c>
@@ -9739,7 +9741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="7">
         <v>43619.683368090278</v>
       </c>
@@ -9771,7 +9773,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="7">
         <v>43620.42668315972</v>
       </c>
@@ -9797,7 +9799,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="7">
         <v>43620.433715914347</v>
       </c>
@@ -9826,7 +9828,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <v>43620.449795451394</v>
       </c>
@@ -9855,7 +9857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="7">
         <v>43620.468617280094</v>
       </c>
@@ -9899,7 +9901,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
         <v>43620.486011516201</v>
       </c>
@@ -9940,7 +9942,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="7">
         <v>43620.487928645831</v>
       </c>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
         <v>43620.488378425929</v>
       </c>
@@ -9989,7 +9991,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="7">
         <v>43620.488762453708</v>
       </c>
@@ -10009,7 +10011,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
         <v>43620.502757766204</v>
       </c>
@@ -10038,7 +10040,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="7">
         <v>43620.503008993051</v>
       </c>
@@ -10079,7 +10081,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
         <v>43620.516394976847</v>
       </c>
@@ -10105,7 +10107,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
         <v>43620.531383842594</v>
       </c>
@@ -10128,7 +10130,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
         <v>43620.534318229169</v>
       </c>
@@ -10157,7 +10159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="7">
         <v>43620.53862825231</v>
       </c>
@@ -10186,7 +10188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="7">
         <v>43620.544621446759</v>
       </c>
@@ -10215,7 +10217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="7">
         <v>43620.559045000002</v>
       </c>
@@ -10256,7 +10258,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
         <v>43620.562107916667</v>
       </c>
@@ -10279,7 +10281,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="7">
         <v>43620.57524528935</v>
       </c>
@@ -10320,7 +10322,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="7">
         <v>43620.57848960648</v>
       </c>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="7">
         <v>43620.589187465273</v>
       </c>
@@ -10372,7 +10374,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="7">
         <v>43620.646162557867</v>
       </c>
@@ -10413,7 +10415,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="7">
         <v>43620.686772013883</v>
       </c>
@@ -10436,7 +10438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
         <v>43623.521720659723</v>
       </c>
@@ -10459,7 +10461,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="231" spans="1:15" s="22" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" s="22" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="18">
         <v>43623.522309618056</v>
       </c>
@@ -10482,7 +10484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
         <v>43633.40398304398</v>
       </c>
@@ -10511,7 +10513,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="7">
         <v>43633.416756932871</v>
       </c>
@@ -10540,7 +10542,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="7">
         <v>43633.420208194446</v>
       </c>
@@ -10569,7 +10571,7 @@
         <v>14250</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="7">
         <v>43633.428534791667</v>
       </c>
@@ -10598,7 +10600,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
         <v>43633.4461915625</v>
       </c>
@@ -10671,7 +10673,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="7">
         <v>43633.50244113426</v>
       </c>
@@ -10700,7 +10702,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="7">
         <v>43633.504802060183</v>
       </c>
@@ -10729,7 +10731,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
         <v>43633.523931469907</v>
       </c>
@@ -10758,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
         <v>43633.530496736115</v>
       </c>
@@ -10802,7 +10804,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="7">
         <v>43633.533061898153</v>
       </c>
@@ -10831,7 +10833,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="7">
         <v>43633.539491469906</v>
       </c>
@@ -10860,7 +10862,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="7">
         <v>43633.543584953703</v>
       </c>
@@ -10889,7 +10891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
         <v>43633.547313564814</v>
       </c>
@@ -10918,7 +10920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="7">
         <v>43633.551025127315</v>
       </c>
@@ -10947,7 +10949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
         <v>43633.562344479171</v>
       </c>
@@ -10976,7 +10978,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="7">
         <v>43633.590683958333</v>
       </c>
@@ -11020,7 +11022,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="249" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="7">
         <v>43633.581785532406</v>
       </c>
@@ -11049,7 +11051,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="7">
         <v>43633.625512199069</v>
       </c>
@@ -11075,7 +11077,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="7">
         <v>43633.627015150458</v>
       </c>
@@ -11104,7 +11106,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="7">
         <v>43633.63865868056</v>
       </c>
@@ -11136,7 +11138,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="7">
         <v>43633.660197569443</v>
       </c>
@@ -11168,7 +11170,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="7">
         <v>43633.689922777776</v>
       </c>
@@ -11200,7 +11202,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="7">
         <v>43634.393672152779</v>
       </c>
@@ -11229,7 +11231,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="7">
         <v>43634.396875138889</v>
       </c>
@@ -11258,7 +11260,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="7">
         <v>43634.405545023154</v>
       </c>
@@ -11287,7 +11289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="7">
         <v>43634.416232280091</v>
       </c>
@@ -11316,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="7">
         <v>43634.420364861115</v>
       </c>
@@ -11345,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="7">
         <v>43634.424504351853</v>
       </c>
@@ -11389,7 +11391,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="261" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="7">
         <v>43634.427363206021</v>
       </c>
@@ -11418,7 +11420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="7">
         <v>43634.437920937504</v>
       </c>
@@ -11447,7 +11449,7 @@
         <v>7250</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="7">
         <v>43634.446620960647</v>
       </c>
@@ -11476,7 +11478,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="7">
         <v>43634.454626250001</v>
       </c>
@@ -11505,7 +11507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="7">
         <v>43634.456643518519</v>
       </c>
@@ -11537,7 +11539,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="7">
         <v>43634.458449259255</v>
       </c>
@@ -11566,7 +11568,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="7">
         <v>43634.469420011577</v>
       </c>
@@ -11595,7 +11597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="7">
         <v>43634.472232048611</v>
       </c>
@@ -11624,7 +11626,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="7">
         <v>43634.478026145836</v>
       </c>
@@ -11653,7 +11655,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="7">
         <v>43634.478377719905</v>
       </c>
@@ -11682,7 +11684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="7">
         <v>43634.486881469908</v>
       </c>
@@ -11711,7 +11713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="7">
         <v>43634.488325983795</v>
       </c>
@@ -11740,7 +11742,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="7">
         <v>43634.496477800931</v>
       </c>
@@ -11772,7 +11774,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="274" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7">
         <v>43634.500037627316</v>
       </c>
@@ -11801,7 +11803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="7">
         <v>43634.503317557872</v>
       </c>
@@ -11830,7 +11832,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="276" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="7">
         <v>43634.5105887963</v>
       </c>
@@ -11859,7 +11861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="7">
         <v>43634.51392675926</v>
       </c>
@@ -11891,7 +11893,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="278" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="7">
         <v>43634.530469999998</v>
       </c>
@@ -11920,7 +11922,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="279" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="7">
         <v>43634.56578636574</v>
       </c>
@@ -11952,7 +11954,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="280" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="7">
         <v>43634.579063877318</v>
       </c>
@@ -11978,7 +11980,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="7">
         <v>43634.582968854171</v>
       </c>
@@ -12010,7 +12012,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7">
         <v>43634.633482164354</v>
       </c>
@@ -12039,7 +12041,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="283" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="7">
         <v>43637.422400451389</v>
       </c>
@@ -12068,7 +12070,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="7">
         <v>43641.40604130787</v>
       </c>
@@ -12109,7 +12111,7 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="285" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="7">
         <v>43641.415160428238</v>
       </c>
@@ -12150,7 +12152,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="7">
         <v>43641.438067060182</v>
       </c>
@@ -12191,7 +12193,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="287" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="7">
         <v>43641.454948587962</v>
       </c>
@@ -12232,7 +12234,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="288" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="7">
         <v>43641.468790266204</v>
       </c>
@@ -12273,7 +12275,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="289" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="7">
         <v>43641.543771076387</v>
       </c>
@@ -12314,7 +12316,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="290" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="7">
         <v>43641.555053761578</v>
       </c>
@@ -12355,7 +12357,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="291" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="7">
         <v>43641.635631805555</v>
       </c>
@@ -12396,7 +12398,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="292" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="7">
         <v>43641.647440000001</v>
       </c>
@@ -12437,7 +12439,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="293" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="7">
         <v>43641.6602040625</v>
       </c>
@@ -12478,7 +12480,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="294" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="7">
         <v>43641.689663888887</v>
       </c>
@@ -12519,7 +12521,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="295" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="7">
         <v>43641.701291400459</v>
       </c>
@@ -12560,7 +12562,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="296" spans="1:17" s="22" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17" s="22" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="18">
         <v>43641.717524178239</v>
       </c>
@@ -12604,7 +12606,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="297" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="7">
         <v>43647.378567395834</v>
       </c>
@@ -12637,7 +12639,7 @@
       </c>
       <c r="Q297" s="5"/>
     </row>
-    <row r="298" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="7">
         <v>43647.39412060185</v>
       </c>
@@ -12670,7 +12672,7 @@
       </c>
       <c r="Q298" s="5"/>
     </row>
-    <row r="299" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="7">
         <v>43647.403549803239</v>
       </c>
@@ -12703,7 +12705,7 @@
       </c>
       <c r="Q299" s="5"/>
     </row>
-    <row r="300" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="7">
         <v>43647.418112916668</v>
       </c>
@@ -12736,7 +12738,7 @@
       </c>
       <c r="Q300" s="5"/>
     </row>
-    <row r="301" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="7">
         <v>43647.437997430556</v>
       </c>
@@ -12768,7 +12770,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="302" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="7">
         <v>43647.442859641204</v>
       </c>
@@ -12801,7 +12803,7 @@
       </c>
       <c r="Q302" s="5"/>
     </row>
-    <row r="303" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="7">
         <v>43647.44526699074</v>
       </c>
@@ -12834,7 +12836,7 @@
       </c>
       <c r="Q303" s="5"/>
     </row>
-    <row r="304" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="7">
         <v>43647.445862928245</v>
       </c>
@@ -12867,7 +12869,7 @@
       </c>
       <c r="Q304" s="5"/>
     </row>
-    <row r="305" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="7">
         <v>43647.452365173609</v>
       </c>
@@ -12900,7 +12902,7 @@
       </c>
       <c r="Q305" s="5"/>
     </row>
-    <row r="306" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="7">
         <v>43647.46204752315</v>
       </c>
@@ -12933,7 +12935,7 @@
       </c>
       <c r="Q306" s="5"/>
     </row>
-    <row r="307" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="7">
         <v>43647.47148359954</v>
       </c>
@@ -12966,7 +12968,7 @@
       </c>
       <c r="Q307" s="5"/>
     </row>
-    <row r="308" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="7">
         <v>43647.475172638893</v>
       </c>
@@ -12999,7 +13001,7 @@
       </c>
       <c r="Q308" s="5"/>
     </row>
-    <row r="309" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="7">
         <v>43647.482570231485</v>
       </c>
@@ -13032,7 +13034,7 @@
       </c>
       <c r="Q309" s="5"/>
     </row>
-    <row r="310" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="7">
         <v>43647.489491956017</v>
       </c>
@@ -13065,7 +13067,7 @@
       </c>
       <c r="Q310" s="5"/>
     </row>
-    <row r="311" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="7">
         <v>43647.495944016206</v>
       </c>
@@ -13098,7 +13100,7 @@
       </c>
       <c r="Q311" s="5"/>
     </row>
-    <row r="312" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="7">
         <v>43647.496494571758</v>
       </c>
@@ -13131,7 +13133,7 @@
       </c>
       <c r="Q312" s="5"/>
     </row>
-    <row r="313" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="7">
         <v>43647.5053858912</v>
       </c>
@@ -13164,7 +13166,7 @@
       </c>
       <c r="Q313" s="5"/>
     </row>
-    <row r="314" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="7">
         <v>43647.512554305555</v>
       </c>
@@ -13200,7 +13202,7 @@
       </c>
       <c r="Q314" s="5"/>
     </row>
-    <row r="315" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="7">
         <v>43647.513685578699</v>
       </c>
@@ -13233,7 +13235,7 @@
       </c>
       <c r="Q315" s="5"/>
     </row>
-    <row r="316" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="7">
         <v>43647.518523483799</v>
       </c>
@@ -13266,7 +13268,7 @@
       </c>
       <c r="Q316" s="5"/>
     </row>
-    <row r="317" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="7">
         <v>43647.519861805558</v>
       </c>
@@ -13302,7 +13304,7 @@
       </c>
       <c r="Q317" s="5"/>
     </row>
-    <row r="318" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="7">
         <v>43647.535344895834</v>
       </c>
@@ -13335,7 +13337,7 @@
       </c>
       <c r="Q318" s="5"/>
     </row>
-    <row r="319" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="7">
         <v>43647.537166388887</v>
       </c>
@@ -13368,7 +13370,7 @@
       </c>
       <c r="Q319" s="5"/>
     </row>
-    <row r="320" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="7">
         <v>43647.538050277777</v>
       </c>
@@ -13401,7 +13403,7 @@
       </c>
       <c r="Q320" s="5"/>
     </row>
-    <row r="321" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="7">
         <v>43647.540616631944</v>
       </c>
@@ -13434,7 +13436,7 @@
       </c>
       <c r="Q321" s="5"/>
     </row>
-    <row r="322" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="7">
         <v>43647.54435773148</v>
       </c>
@@ -13467,7 +13469,7 @@
       </c>
       <c r="Q322" s="5"/>
     </row>
-    <row r="323" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="7">
         <v>43647.547887106484</v>
       </c>
@@ -13500,7 +13502,7 @@
       </c>
       <c r="Q323" s="5"/>
     </row>
-    <row r="324" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="7">
         <v>43647.551679976852</v>
       </c>
@@ -13533,7 +13535,7 @@
       </c>
       <c r="Q324" s="5"/>
     </row>
-    <row r="325" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="7">
         <v>43647.55485487268</v>
       </c>
@@ -13566,7 +13568,7 @@
       </c>
       <c r="Q325" s="5"/>
     </row>
-    <row r="326" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="7">
         <v>43647.586594768523</v>
       </c>
@@ -13635,7 +13637,7 @@
       </c>
       <c r="Q327" s="5"/>
     </row>
-    <row r="328" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="7">
         <v>43647.581616527779</v>
       </c>
@@ -13707,7 +13709,7 @@
       </c>
       <c r="Q329" s="5"/>
     </row>
-    <row r="330" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="7">
         <v>43647.587708356485</v>
       </c>
@@ -13740,7 +13742,7 @@
       </c>
       <c r="Q330" s="5"/>
     </row>
-    <row r="331" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="7">
         <v>43647.58930334491</v>
       </c>
@@ -13773,7 +13775,7 @@
       </c>
       <c r="Q331" s="5"/>
     </row>
-    <row r="332" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="7">
         <v>43647.614860520829</v>
       </c>
@@ -13806,7 +13808,7 @@
       </c>
       <c r="Q332" s="5"/>
     </row>
-    <row r="333" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="7">
         <v>43647.616616493055</v>
       </c>
@@ -13839,7 +13841,7 @@
       </c>
       <c r="Q333" s="5"/>
     </row>
-    <row r="334" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="7">
         <v>43647.628458217594</v>
       </c>
@@ -13866,7 +13868,7 @@
       </c>
       <c r="Q334" s="5"/>
     </row>
-    <row r="335" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="7">
         <v>43647.648176006944</v>
       </c>
@@ -13899,7 +13901,7 @@
       </c>
       <c r="Q335" s="5"/>
     </row>
-    <row r="336" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="7">
         <v>43647.652004189818</v>
       </c>
@@ -13932,7 +13934,7 @@
       </c>
       <c r="Q336" s="5"/>
     </row>
-    <row r="337" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="7">
         <v>43647.663755868052</v>
       </c>
@@ -13965,7 +13967,7 @@
       </c>
       <c r="Q337" s="5"/>
     </row>
-    <row r="338" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="7">
         <v>43648.434577314816</v>
       </c>
@@ -14001,7 +14003,7 @@
       </c>
       <c r="Q338" s="5"/>
     </row>
-    <row r="339" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="7">
         <v>43648.464827615739</v>
       </c>
@@ -14034,7 +14036,7 @@
       </c>
       <c r="Q339" s="5"/>
     </row>
-    <row r="340" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="7">
         <v>43648.49087303241</v>
       </c>
@@ -14064,7 +14066,7 @@
       </c>
       <c r="Q340" s="5"/>
     </row>
-    <row r="341" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="7">
         <v>43648.505817361111</v>
       </c>
@@ -14097,7 +14099,7 @@
       </c>
       <c r="Q341" s="5"/>
     </row>
-    <row r="342" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="7">
         <v>43648.523454918977</v>
       </c>
@@ -14127,7 +14129,7 @@
       </c>
       <c r="Q342" s="5"/>
     </row>
-    <row r="343" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="7">
         <v>43648.535805590276</v>
       </c>
@@ -14153,7 +14155,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="344" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="7">
         <v>43648.557352407406</v>
       </c>
@@ -14186,7 +14188,7 @@
       </c>
       <c r="Q344" s="5"/>
     </row>
-    <row r="345" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="7">
         <v>43648.574154016205</v>
       </c>
@@ -14222,7 +14224,7 @@
       </c>
       <c r="Q345" s="5"/>
     </row>
-    <row r="346" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="7">
         <v>43648.597286747681</v>
       </c>
@@ -14255,7 +14257,7 @@
       </c>
       <c r="Q346" s="5"/>
     </row>
-    <row r="347" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="7">
         <v>43648.600304039355</v>
       </c>
@@ -14288,7 +14290,7 @@
       </c>
       <c r="Q347" s="5"/>
     </row>
-    <row r="348" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="7">
         <v>43648.61853983796</v>
       </c>
@@ -14324,7 +14326,7 @@
       </c>
       <c r="Q348" s="5"/>
     </row>
-    <row r="349" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="7">
         <v>43657.492113460648</v>
       </c>
@@ -14353,7 +14355,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="350" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="7">
         <v>43657.493938182874</v>
       </c>
@@ -14385,7 +14387,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="351" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="25">
         <v>43661.402646550923</v>
       </c>
@@ -14417,7 +14419,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="352" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="25">
         <v>43661.407537430554</v>
       </c>
@@ -14449,7 +14451,7 @@
         <v>32.43</v>
       </c>
     </row>
-    <row r="353" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="25">
         <v>43661.419768958338</v>
       </c>
@@ -14481,7 +14483,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="25">
         <v>43661.427344340278</v>
       </c>
@@ -14542,7 +14544,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="25">
         <v>43661.441045312502</v>
       </c>
@@ -14574,7 +14576,7 @@
         <v>5957</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="25">
         <v>43661.454036006944</v>
       </c>
@@ -14606,7 +14608,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="25">
         <v>43661.463808819448</v>
       </c>
@@ -14638,7 +14640,7 @@
         <v>5707</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="25">
         <v>43661.465437303239</v>
       </c>
@@ -14670,7 +14672,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="25">
         <v>43661.470525659723</v>
       </c>
@@ -14699,7 +14701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="25">
         <v>43661.475225057875</v>
       </c>
@@ -14731,7 +14733,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="25">
         <v>43661.488394363427</v>
       </c>
@@ -14763,7 +14765,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="25">
         <v>43661.49257905093</v>
       </c>
@@ -14795,7 +14797,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="25">
         <v>43661.496228148149</v>
       </c>
@@ -14827,7 +14829,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="25">
         <v>43661.502193263892</v>
       </c>
@@ -14859,7 +14861,7 @@
         <v>3342</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="25">
         <v>43661.52084143518</v>
       </c>
@@ -14891,7 +14893,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="25">
         <v>43661.539627453705</v>
       </c>
@@ -14923,7 +14925,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="368" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="25">
         <v>43661.544727465276</v>
       </c>
@@ -14955,7 +14957,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="25">
         <v>43661.571753194439</v>
       </c>
@@ -14987,7 +14989,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="25">
         <v>43661.575824953703</v>
       </c>
@@ -15013,7 +15015,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="25">
         <v>43661.595967152782</v>
       </c>
@@ -15042,7 +15044,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="372" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="25">
         <v>43662.505582557875</v>
       </c>
@@ -15074,7 +15076,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="25">
         <v>43662.403231944445</v>
       </c>
@@ -15106,7 +15108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="25">
         <v>43662.417311712961</v>
       </c>
@@ -15138,7 +15140,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="25">
         <v>43662.423942743058</v>
       </c>
@@ -15170,7 +15172,7 @@
         <v>3077</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="25">
         <v>43662.43173575231</v>
       </c>
@@ -15199,7 +15201,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="25">
         <v>43662.438895104162</v>
       </c>
@@ -15228,7 +15230,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="25">
         <v>43662.457425300927</v>
       </c>
@@ -15257,7 +15259,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="379" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="25">
         <v>43662.470728321758</v>
       </c>
@@ -15289,7 +15291,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="25">
         <v>43662.481005601847</v>
       </c>
@@ -15321,7 +15323,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="381" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="25">
         <v>43662.503588680556</v>
       </c>
@@ -15353,7 +15355,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="25">
         <v>43662.508576585649</v>
       </c>
@@ -15385,7 +15387,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="25">
         <v>43662.515664699073</v>
       </c>
@@ -15417,7 +15419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="25">
         <v>43662.523681469909</v>
       </c>
@@ -15449,7 +15451,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="385" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="25">
         <v>43662.524749976852</v>
       </c>
@@ -15481,7 +15483,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="25">
         <v>43662.526702222225</v>
       </c>
@@ -15513,7 +15515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="25">
         <v>43662.528149259262</v>
       </c>
@@ -15543,7 +15545,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="388" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="25">
         <v>43662.530195763888</v>
       </c>
@@ -15575,7 +15577,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="389" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="25">
         <v>43662.533871203705</v>
       </c>
@@ -15607,7 +15609,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="390" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="25">
         <v>43662.534038217593</v>
       </c>
@@ -15639,7 +15641,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="391" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="25">
         <v>43662.552655601852</v>
       </c>
@@ -15671,7 +15673,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="25">
         <v>43662.553831041667</v>
       </c>
@@ -15703,7 +15705,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="25">
         <v>43662.553892222219</v>
       </c>
@@ -15732,7 +15734,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="25">
         <v>43662.576265393523</v>
       </c>
@@ -15761,7 +15763,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="395" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="25">
         <v>43662.605140277781</v>
       </c>
@@ -15793,7 +15795,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="396" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="25">
         <v>43662.608947546294</v>
       </c>
@@ -15822,7 +15824,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="25">
         <v>43662.630076076384</v>
       </c>
@@ -15845,7 +15847,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="25">
         <v>43662.638398935189</v>
       </c>
@@ -15874,7 +15876,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="25">
         <v>43662.651400266201</v>
       </c>
@@ -15903,7 +15905,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="25">
         <v>43662.653115231486</v>
       </c>
@@ -15932,7 +15934,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="401" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="25">
         <v>43662.868660763888</v>
       </c>
@@ -15961,7 +15963,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="402" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="25">
         <v>43665.537839201388</v>
       </c>
@@ -15990,7 +15992,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="403" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="25">
         <v>43665.538775069443</v>
       </c>
@@ -16013,7 +16015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="25">
         <v>43665.565719756945</v>
       </c>
@@ -16042,7 +16044,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="405" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="25">
         <v>43665.602270196759</v>
       </c>
@@ -16071,7 +16073,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="406" spans="1:23" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:23" s="34" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="30">
         <v>43665.620232199071</v>
       </c>
@@ -16100,7 +16102,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="407" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="35">
         <v>43676.683530092596</v>
       </c>
@@ -16147,7 +16149,7 @@
       <c r="V407" s="36"/>
       <c r="W407" s="36"/>
     </row>
-    <row r="408" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="35">
         <v>43677.336412037039</v>
       </c>
@@ -16190,7 +16192,7 @@
       <c r="V408" s="36"/>
       <c r="W408" s="36"/>
     </row>
-    <row r="409" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="35">
         <v>43677.349629629629</v>
       </c>
@@ -16233,7 +16235,7 @@
       <c r="V409" s="36"/>
       <c r="W409" s="36"/>
     </row>
-    <row r="410" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="35">
         <v>43677.356956018521</v>
       </c>
@@ -16276,7 +16278,7 @@
       <c r="V410" s="36"/>
       <c r="W410" s="36"/>
     </row>
-    <row r="411" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="35">
         <v>43677.370138888888</v>
       </c>
@@ -16319,7 +16321,7 @@
       <c r="V411" s="36"/>
       <c r="W411" s="36"/>
     </row>
-    <row r="412" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="35">
         <v>43677.411805555559</v>
       </c>
@@ -16358,7 +16360,7 @@
       <c r="V412" s="36"/>
       <c r="W412" s="36"/>
     </row>
-    <row r="413" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="35">
         <v>43677.412245370368</v>
       </c>
@@ -16401,7 +16403,7 @@
       <c r="V413" s="36"/>
       <c r="W413" s="36"/>
     </row>
-    <row r="414" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="35">
         <v>43677.417326388888</v>
       </c>
@@ -16444,7 +16446,7 @@
       <c r="V414" s="36"/>
       <c r="W414" s="36"/>
     </row>
-    <row r="415" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="35">
         <v>43677.418229166666</v>
       </c>
@@ -16487,7 +16489,7 @@
       <c r="V415" s="36"/>
       <c r="W415" s="36"/>
     </row>
-    <row r="416" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="35">
         <v>43677.419004629628</v>
       </c>
@@ -16532,7 +16534,7 @@
       <c r="V416" s="36"/>
       <c r="W416" s="36"/>
     </row>
-    <row r="417" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="35">
         <v>43677.428067129629</v>
       </c>
@@ -16577,7 +16579,7 @@
       <c r="V417" s="36"/>
       <c r="W417" s="36"/>
     </row>
-    <row r="418" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="35">
         <v>43677.428483796299</v>
       </c>
@@ -16622,7 +16624,7 @@
       <c r="V418" s="36"/>
       <c r="W418" s="36"/>
     </row>
-    <row r="419" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="35">
         <v>43677.430266203701</v>
       </c>
@@ -16665,7 +16667,7 @@
       <c r="V419" s="36"/>
       <c r="W419" s="36"/>
     </row>
-    <row r="420" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="35">
         <v>43677.437337962961</v>
       </c>
@@ -16710,7 +16712,7 @@
       <c r="V420" s="36"/>
       <c r="W420" s="36"/>
     </row>
-    <row r="421" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="35">
         <v>43677.448240740741</v>
       </c>
@@ -16755,7 +16757,7 @@
       <c r="V421" s="36"/>
       <c r="W421" s="36"/>
     </row>
-    <row r="422" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="35">
         <v>43677.465532407405</v>
       </c>
@@ -16800,7 +16802,7 @@
       <c r="V422" s="36"/>
       <c r="W422" s="36"/>
     </row>
-    <row r="423" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="35">
         <v>43677.49422453704</v>
       </c>
@@ -16839,7 +16841,7 @@
       <c r="V423" s="36"/>
       <c r="W423" s="36"/>
     </row>
-    <row r="424" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="35">
         <v>43677.491331018522</v>
       </c>
@@ -16884,7 +16886,7 @@
       <c r="V424" s="36"/>
       <c r="W424" s="36"/>
     </row>
-    <row r="425" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="35">
         <v>43677.509918981479</v>
       </c>
@@ -16929,7 +16931,7 @@
       <c r="V425" s="36"/>
       <c r="W425" s="36"/>
     </row>
-    <row r="426" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="35">
         <v>43677.511956018519</v>
       </c>
@@ -16974,7 +16976,7 @@
       <c r="V426" s="36"/>
       <c r="W426" s="36"/>
     </row>
-    <row r="427" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="35">
         <v>43677.514525462961</v>
       </c>
@@ -17013,7 +17015,7 @@
       <c r="V427" s="36"/>
       <c r="W427" s="36"/>
     </row>
-    <row r="428" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="35">
         <v>43677.518958333334</v>
       </c>
@@ -17058,7 +17060,7 @@
       <c r="V428" s="36"/>
       <c r="W428" s="36"/>
     </row>
-    <row r="429" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="35">
         <v>43677.520370370374</v>
       </c>
@@ -17103,7 +17105,7 @@
       <c r="V429" s="36"/>
       <c r="W429" s="36"/>
     </row>
-    <row r="430" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="35">
         <v>43677.52925925926</v>
       </c>
@@ -17148,7 +17150,7 @@
       <c r="V430" s="36"/>
       <c r="W430" s="36"/>
     </row>
-    <row r="431" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="35">
         <v>43677.537638888891</v>
       </c>
@@ -17193,7 +17195,7 @@
       <c r="V431" s="36"/>
       <c r="W431" s="36"/>
     </row>
-    <row r="432" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="35">
         <v>43677.549780092595</v>
       </c>
@@ -17236,7 +17238,7 @@
       <c r="V432" s="36"/>
       <c r="W432" s="36"/>
     </row>
-    <row r="433" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="35">
         <v>43677.553333333337</v>
       </c>
@@ -17281,7 +17283,7 @@
       <c r="V433" s="36"/>
       <c r="W433" s="36"/>
     </row>
-    <row r="434" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="35">
         <v>43677.671620370369</v>
       </c>
@@ -17324,7 +17326,7 @@
       <c r="V434" s="36"/>
       <c r="W434" s="36"/>
     </row>
-    <row r="435" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="35">
         <v>43678.3440162037</v>
       </c>
@@ -17367,7 +17369,7 @@
       <c r="V435" s="36"/>
       <c r="W435" s="36"/>
     </row>
-    <row r="436" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="35">
         <v>43678.348865740743</v>
       </c>
@@ -17496,7 +17498,7 @@
       <c r="V438" s="36"/>
       <c r="W438" s="36"/>
     </row>
-    <row r="439" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="35">
         <v>43678.372650462959</v>
       </c>
@@ -17539,7 +17541,7 @@
       <c r="V439" s="36"/>
       <c r="W439" s="36"/>
     </row>
-    <row r="440" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="35">
         <v>43678.375023148146</v>
       </c>
@@ -17582,7 +17584,7 @@
       <c r="V440" s="36"/>
       <c r="W440" s="36"/>
     </row>
-    <row r="441" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="35">
         <v>43678.389131944445</v>
       </c>
@@ -17625,7 +17627,7 @@
       <c r="V441" s="36"/>
       <c r="W441" s="36"/>
     </row>
-    <row r="442" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="35">
         <v>43678.390729166669</v>
       </c>
@@ -17668,7 +17670,7 @@
       <c r="V442" s="36"/>
       <c r="W442" s="36"/>
     </row>
-    <row r="443" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="35">
         <v>43678.404270833336</v>
       </c>
@@ -17711,7 +17713,7 @@
       <c r="V443" s="36"/>
       <c r="W443" s="36"/>
     </row>
-    <row r="444" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="35">
         <v>43678.408738425926</v>
       </c>
@@ -17756,7 +17758,7 @@
       <c r="V444" s="36"/>
       <c r="W444" s="36"/>
     </row>
-    <row r="445" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="35">
         <v>43678.415671296294</v>
       </c>
@@ -17801,7 +17803,7 @@
       <c r="V445" s="36"/>
       <c r="W445" s="36"/>
     </row>
-    <row r="446" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="35">
         <v>43678.425798611112</v>
       </c>
@@ -17846,7 +17848,7 @@
       <c r="V446" s="36"/>
       <c r="W446" s="36"/>
     </row>
-    <row r="447" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="35">
         <v>43678.438703703701</v>
       </c>
@@ -17891,7 +17893,7 @@
       <c r="V447" s="36"/>
       <c r="W447" s="36"/>
     </row>
-    <row r="448" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="35">
         <v>43678.447800925926</v>
       </c>
@@ -17936,7 +17938,7 @@
       <c r="V448" s="36"/>
       <c r="W448" s="36"/>
     </row>
-    <row r="449" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="35">
         <v>43678.504062499997</v>
       </c>
@@ -17981,7 +17983,7 @@
       <c r="V449" s="36"/>
       <c r="W449" s="36"/>
     </row>
-    <row r="450" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="35">
         <v>43678.518854166665</v>
       </c>
@@ -18026,7 +18028,7 @@
       <c r="V450" s="36"/>
       <c r="W450" s="36"/>
     </row>
-    <row r="451" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="35">
         <v>43678.522696759261</v>
       </c>
@@ -18071,7 +18073,7 @@
       <c r="V451" s="36"/>
       <c r="W451" s="36"/>
     </row>
-    <row r="452" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="35">
         <v>43678.557997685188</v>
       </c>
@@ -18116,7 +18118,7 @@
       <c r="V452" s="36"/>
       <c r="W452" s="36"/>
     </row>
-    <row r="453" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="35">
         <v>43678.558668981481</v>
       </c>
@@ -18161,7 +18163,7 @@
       <c r="V453" s="36"/>
       <c r="W453" s="36"/>
     </row>
-    <row r="454" spans="1:23" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:23" s="34" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="42">
         <v>43678.562905092593</v>
       </c>
@@ -18206,7 +18208,7 @@
       <c r="V454" s="43"/>
       <c r="W454" s="43"/>
     </row>
-    <row r="455" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="50">
         <v>43682.777913518519</v>
       </c>
@@ -18238,7 +18240,7 @@
       </c>
       <c r="L455" s="47"/>
     </row>
-    <row r="456" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="50">
         <v>43682.778779560183</v>
       </c>
@@ -18266,7 +18268,7 @@
       <c r="K456" s="47"/>
       <c r="L456" s="47"/>
     </row>
-    <row r="457" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="50">
         <v>43682.779449768517</v>
       </c>
@@ -18294,7 +18296,7 @@
       <c r="K457" s="47"/>
       <c r="L457" s="47"/>
     </row>
-    <row r="458" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="50">
         <v>43690.599835092595</v>
       </c>
@@ -18322,7 +18324,7 @@
       <c r="K458" s="47"/>
       <c r="L458" s="47"/>
     </row>
-    <row r="459" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="50">
         <v>43691.339949675923</v>
       </c>
@@ -18356,7 +18358,7 @@
       </c>
       <c r="L459" s="47"/>
     </row>
-    <row r="460" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="50">
         <v>43691.373331574076</v>
       </c>
@@ -18388,7 +18390,7 @@
       </c>
       <c r="L460" s="47"/>
     </row>
-    <row r="461" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="50">
         <v>43691.394918078702</v>
       </c>
@@ -18420,7 +18422,7 @@
       </c>
       <c r="L461" s="47"/>
     </row>
-    <row r="462" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="50">
         <v>43691.39618851852</v>
       </c>
@@ -18452,7 +18454,7 @@
       </c>
       <c r="L462" s="47"/>
     </row>
-    <row r="463" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="50">
         <v>43691.424711944448</v>
       </c>
@@ -18484,7 +18486,7 @@
       </c>
       <c r="L463" s="47"/>
     </row>
-    <row r="464" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="50">
         <v>43691.489826134261</v>
       </c>
@@ -18516,7 +18518,7 @@
       </c>
       <c r="L464" s="47"/>
     </row>
-    <row r="465" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="50">
         <v>43691.506360104162</v>
       </c>
@@ -18548,7 +18550,7 @@
       </c>
       <c r="L465" s="47"/>
     </row>
-    <row r="466" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="50">
         <v>43691.514293182874</v>
       </c>
@@ -18580,7 +18582,7 @@
       </c>
       <c r="L466" s="47"/>
     </row>
-    <row r="467" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="50">
         <v>43691.51881627315</v>
       </c>
@@ -18612,7 +18614,7 @@
       </c>
       <c r="L467" s="47"/>
     </row>
-    <row r="468" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="50">
         <v>43691.596439664354</v>
       </c>
@@ -18646,7 +18648,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="469" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="50">
         <v>43691.597206006947</v>
       </c>
@@ -18680,7 +18682,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="470" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="50">
         <v>43691.5980102662</v>
       </c>
@@ -18714,7 +18716,7 @@
         <v>21.76</v>
       </c>
     </row>
-    <row r="471" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="50">
         <v>43691.598903634258</v>
       </c>
@@ -18748,7 +18750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="50">
         <v>43691.600111724532</v>
       </c>
@@ -18782,7 +18784,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="473" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="50">
         <v>43691.601184791667</v>
       </c>
@@ -18816,7 +18818,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="474" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="50">
         <v>43691.602001550928</v>
       </c>
@@ -18850,7 +18852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="50">
         <v>43691.603076168976</v>
       </c>
@@ -18884,7 +18886,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="476" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="50">
         <v>43691.604055567128</v>
       </c>
@@ -18918,7 +18920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="50">
         <v>43691.60501457176</v>
       </c>
@@ -18952,7 +18954,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="478" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="50">
         <v>43691.605919074078</v>
       </c>
@@ -18986,7 +18988,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="479" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="50">
         <v>43692.367938946758</v>
       </c>
@@ -19012,7 +19014,7 @@
       <c r="K479" s="47"/>
       <c r="L479" s="47"/>
     </row>
-    <row r="480" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="50">
         <v>43692.372533090282</v>
       </c>
@@ -19044,7 +19046,7 @@
       </c>
       <c r="L480" s="47"/>
     </row>
-    <row r="481" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="50">
         <v>43692.377542754628</v>
       </c>
@@ -19078,7 +19080,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="482" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="50">
         <v>43692.379023622685</v>
       </c>
@@ -19110,7 +19112,7 @@
       <c r="K482" s="47"/>
       <c r="L482" s="47"/>
     </row>
-    <row r="483" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="50">
         <v>43692.380487881943</v>
       </c>
@@ -19142,7 +19144,7 @@
       </c>
       <c r="L483" s="47"/>
     </row>
-    <row r="484" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="50">
         <v>43692.3812071875</v>
       </c>
@@ -19174,7 +19176,7 @@
       </c>
       <c r="L484" s="47"/>
     </row>
-    <row r="485" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="50">
         <v>43692.390820451386</v>
       </c>
@@ -19208,7 +19210,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="486" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="50">
         <v>43692.397829791662</v>
       </c>
@@ -19274,7 +19276,7 @@
       </c>
       <c r="L487" s="47"/>
     </row>
-    <row r="488" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="50">
         <v>43692.410219247686</v>
       </c>
@@ -19308,7 +19310,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="489" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="50">
         <v>43692.427920914357</v>
       </c>
@@ -19340,7 +19342,7 @@
       </c>
       <c r="L489" s="47"/>
     </row>
-    <row r="490" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="50">
         <v>43692.42957310185</v>
       </c>
@@ -19368,7 +19370,7 @@
       <c r="K490" s="47"/>
       <c r="L490" s="47"/>
     </row>
-    <row r="491" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="50">
         <v>43692.433171793979</v>
       </c>
@@ -19402,7 +19404,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="492" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="50">
         <v>43692.433813854164</v>
       </c>
@@ -19434,7 +19436,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="493" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="50">
         <v>43692.442683981484</v>
       </c>
@@ -19500,7 +19502,7 @@
       </c>
       <c r="L494" s="47"/>
     </row>
-    <row r="495" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="50">
         <v>43692.451401238424</v>
       </c>
@@ -19534,7 +19536,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="496" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="50">
         <v>43692.462810173616</v>
       </c>
@@ -19566,7 +19568,7 @@
       </c>
       <c r="L496" s="47"/>
     </row>
-    <row r="497" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="50">
         <v>43692.461284398145</v>
       </c>
@@ -19598,7 +19600,7 @@
       </c>
       <c r="L497" s="47"/>
     </row>
-    <row r="498" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="50">
         <v>43692.463983391208</v>
       </c>
@@ -19634,7 +19636,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="499" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="50">
         <v>43692.475208067131</v>
       </c>
@@ -19666,7 +19668,7 @@
       </c>
       <c r="L499" s="47"/>
     </row>
-    <row r="500" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="50">
         <v>43692.476492175927</v>
       </c>
@@ -19700,7 +19702,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="501" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="50">
         <v>43692.478615173612</v>
       </c>
@@ -19732,7 +19734,7 @@
       </c>
       <c r="L501" s="47"/>
     </row>
-    <row r="502" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="50">
         <v>43692.528978958333</v>
       </c>
@@ -19766,7 +19768,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="503" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="50">
         <v>43692.533412048608</v>
       </c>
@@ -19800,7 +19802,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="504" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="50">
         <v>43697.633825567129</v>
       </c>
@@ -19828,7 +19830,7 @@
       <c r="K504" s="47"/>
       <c r="L504" s="47"/>
     </row>
-    <row r="505" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="50">
         <v>43699.523277916669</v>
       </c>
@@ -19858,7 +19860,7 @@
       <c r="K505" s="47"/>
       <c r="L505" s="47"/>
     </row>
-    <row r="506" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="50">
         <v>43699.54147059028</v>
       </c>
@@ -19888,7 +19890,7 @@
       <c r="K506" s="47"/>
       <c r="L506" s="47"/>
     </row>
-    <row r="507" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="50">
         <v>43699.558889918982</v>
       </c>
@@ -19916,7 +19918,7 @@
       <c r="K507" s="47"/>
       <c r="L507" s="47"/>
     </row>
-    <row r="508" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="50">
         <v>43699.559643067128</v>
       </c>
@@ -19944,7 +19946,7 @@
       <c r="K508" s="47"/>
       <c r="L508" s="47"/>
     </row>
-    <row r="509" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="50">
         <v>43705.370988078706</v>
       </c>
@@ -19976,7 +19978,7 @@
       </c>
       <c r="L509" s="47"/>
     </row>
-    <row r="510" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="50">
         <v>43705.372949259261</v>
       </c>
@@ -20004,7 +20006,7 @@
       <c r="K510" s="47"/>
       <c r="L510" s="47"/>
     </row>
-    <row r="511" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="50">
         <v>43705.376371076389</v>
       </c>
@@ -20032,7 +20034,7 @@
       <c r="K511" s="47"/>
       <c r="L511" s="47"/>
     </row>
-    <row r="512" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="50">
         <v>43705.378924803241</v>
       </c>
@@ -20066,7 +20068,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="513" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="50">
         <v>43705.392387824075</v>
       </c>
@@ -20100,7 +20102,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="514" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="50">
         <v>43705.39862472222</v>
       </c>
@@ -20134,7 +20136,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="515" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="50">
         <v>43705.408660706016</v>
       </c>
@@ -20166,7 +20168,7 @@
       </c>
       <c r="L515" s="47"/>
     </row>
-    <row r="516" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="50">
         <v>43705.411271076387</v>
       </c>
@@ -20200,7 +20202,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="517" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="50">
         <v>43705.425978310188</v>
       </c>
@@ -20232,7 +20234,7 @@
       </c>
       <c r="L517" s="47"/>
     </row>
-    <row r="518" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="50">
         <v>43705.434570497688</v>
       </c>
@@ -20266,7 +20268,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="519" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="50">
         <v>43705.435256539349</v>
       </c>
@@ -20300,7 +20302,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="520" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="50">
         <v>43705.44299030093</v>
       </c>
@@ -20334,7 +20336,7 @@
         <v>3861</v>
       </c>
     </row>
-    <row r="521" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="50">
         <v>43705.471227407412</v>
       </c>
@@ -20368,7 +20370,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="522" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="50">
         <v>43705.473228344912</v>
       </c>
@@ -20400,7 +20402,7 @@
       </c>
       <c r="L522" s="47"/>
     </row>
-    <row r="523" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="50">
         <v>43705.483661712962</v>
       </c>
@@ -20434,7 +20436,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="524" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="50">
         <v>43705.501952418985</v>
       </c>
@@ -20466,7 +20468,7 @@
       </c>
       <c r="L524" s="47"/>
     </row>
-    <row r="525" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="50">
         <v>43705.509559247686</v>
       </c>
@@ -20498,7 +20500,7 @@
       </c>
       <c r="L525" s="47"/>
     </row>
-    <row r="526" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="50">
         <v>43705.530956238421</v>
       </c>
@@ -20532,7 +20534,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="527" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="50">
         <v>43706.348805081019</v>
       </c>
@@ -20564,7 +20566,7 @@
       </c>
       <c r="L527" s="47"/>
     </row>
-    <row r="528" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="50">
         <v>43706.382609594904</v>
       </c>
@@ -20598,7 +20600,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="529" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="50">
         <v>43706.384346469902</v>
       </c>
@@ -20632,7 +20634,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="530" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="50">
         <v>43706.407752962958</v>
       </c>
@@ -20692,7 +20694,7 @@
       </c>
       <c r="L531" s="47"/>
     </row>
-    <row r="532" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="50">
         <v>43706.414096319444</v>
       </c>
@@ -20726,7 +20728,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="533" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="50">
         <v>43706.430059513892</v>
       </c>
@@ -20758,7 +20760,7 @@
       </c>
       <c r="L533" s="47"/>
     </row>
-    <row r="534" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="50">
         <v>43706.430542476854</v>
       </c>
@@ -20792,7 +20794,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="535" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="50">
         <v>43706.431239837962</v>
       </c>
@@ -20826,7 +20828,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="536" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="50">
         <v>43706.435479664353</v>
       </c>
@@ -20858,7 +20860,7 @@
       </c>
       <c r="L536" s="47"/>
     </row>
-    <row r="537" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="50">
         <v>43706.435892986112</v>
       </c>
@@ -20892,7 +20894,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="538" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="50">
         <v>43706.439350509259</v>
       </c>
@@ -20926,7 +20928,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="539" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="50">
         <v>43706.442599571761</v>
       </c>
@@ -20958,7 +20960,7 @@
       </c>
       <c r="L539" s="47"/>
     </row>
-    <row r="540" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="50">
         <v>43706.446312094908</v>
       </c>
@@ -20992,7 +20994,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="541" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="50">
         <v>43706.453590034725</v>
       </c>
@@ -21024,7 +21026,7 @@
       </c>
       <c r="L541" s="47"/>
     </row>
-    <row r="542" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="50">
         <v>43706.454553599542</v>
       </c>
@@ -21058,7 +21060,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="543" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="50">
         <v>43706.457137245372</v>
       </c>
@@ -21092,7 +21094,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="544" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="50">
         <v>43706.466475532405</v>
       </c>
@@ -21126,7 +21128,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="545" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="50">
         <v>43706.487083703702</v>
       </c>
@@ -21158,7 +21160,7 @@
       </c>
       <c r="L545" s="47"/>
     </row>
-    <row r="546" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="50">
         <v>43706.475523009256</v>
       </c>
@@ -21192,7 +21194,7 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="547" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="50">
         <v>43706.492985231482</v>
       </c>
@@ -21226,7 +21228,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="548" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="50">
         <v>43706.506774652778</v>
       </c>
@@ -21260,7 +21262,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="549" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="50">
         <v>43706.520222777777</v>
       </c>
@@ -21294,7 +21296,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="550" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="50">
         <v>43706.538481296295</v>
       </c>
@@ -21326,7 +21328,7 @@
       </c>
       <c r="L550" s="47"/>
     </row>
-    <row r="551" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="50">
         <v>43706.55549702546</v>
       </c>
@@ -21360,7 +21362,7 @@
       </c>
       <c r="L551" s="47"/>
     </row>
-    <row r="552" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="50">
         <v>43707.701906550923</v>
       </c>
@@ -21390,7 +21392,7 @@
       <c r="K552" s="47"/>
       <c r="L552" s="47"/>
     </row>
-    <row r="553" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="50">
         <v>43712.367468472221</v>
       </c>
@@ -21424,7 +21426,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="554" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="50">
         <v>43712.39444311343</v>
       </c>
@@ -21458,7 +21460,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="555" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="50">
         <v>43712.399156678242</v>
       </c>
@@ -21492,7 +21494,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="556" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="50">
         <v>43712.407757083332</v>
       </c>
@@ -21526,7 +21528,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="557" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="50">
         <v>43712.409943379629</v>
       </c>
@@ -21560,7 +21562,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="558" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="50">
         <v>43712.415547476849</v>
       </c>
@@ -21594,7 +21596,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="559" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="50">
         <v>43712.421258125003</v>
       </c>
@@ -21628,7 +21630,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="560" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="50">
         <v>43712.424563483801</v>
       </c>
@@ -21662,7 +21664,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="561" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="50">
         <v>43712.432625416666</v>
       </c>
@@ -21696,7 +21698,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="562" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="50">
         <v>43712.440652013887</v>
       </c>
@@ -21730,7 +21732,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="563" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="50">
         <v>43712.451808379628</v>
       </c>
@@ -21764,7 +21766,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="564" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="50">
         <v>43712.459328969911</v>
       </c>
@@ -21790,7 +21792,7 @@
       <c r="K564" s="47"/>
       <c r="L564" s="47"/>
     </row>
-    <row r="565" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="50">
         <v>43712.464040497682</v>
       </c>
@@ -21822,7 +21824,7 @@
       </c>
       <c r="L565" s="47"/>
     </row>
-    <row r="566" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="50">
         <v>43712.47561248843</v>
       </c>
@@ -21856,7 +21858,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="567" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="50">
         <v>43712.478235138886</v>
       </c>
@@ -21888,7 +21890,7 @@
       </c>
       <c r="L567" s="47"/>
     </row>
-    <row r="568" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="50">
         <v>43712.482904131946</v>
       </c>
@@ -21920,7 +21922,7 @@
       </c>
       <c r="L568" s="47"/>
     </row>
-    <row r="569" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="50">
         <v>43712.486539513891</v>
       </c>
@@ -21954,7 +21956,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="570" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="50">
         <v>43712.486583101854</v>
       </c>
@@ -21982,7 +21984,7 @@
       <c r="K570" s="47"/>
       <c r="L570" s="47"/>
     </row>
-    <row r="571" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="50">
         <v>43712.518857824078</v>
       </c>
@@ -22016,7 +22018,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="572" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="50">
         <v>43712.534898750004</v>
       </c>
@@ -22050,7 +22052,7 @@
         <v>3238</v>
       </c>
     </row>
-    <row r="573" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="50">
         <v>43712.535281874996</v>
       </c>
@@ -22078,7 +22080,7 @@
       <c r="K573" s="47"/>
       <c r="L573" s="47"/>
     </row>
-    <row r="574" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="50">
         <v>43712.545961504627</v>
       </c>
@@ -22112,7 +22114,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="575" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="50">
         <v>43712.554804884261</v>
       </c>
@@ -22146,7 +22148,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="576" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="50">
         <v>43712.568402986115</v>
       </c>
@@ -22178,7 +22180,7 @@
       </c>
       <c r="L576" s="47"/>
     </row>
-    <row r="577" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="50">
         <v>43712.570633854164</v>
       </c>
@@ -22212,7 +22214,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="578" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="50">
         <v>43712.593498831018</v>
       </c>
@@ -22240,7 +22242,7 @@
       <c r="K578" s="47"/>
       <c r="L578" s="47"/>
     </row>
-    <row r="579" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="50">
         <v>43712.60098609954</v>
       </c>
@@ -22306,7 +22308,7 @@
       </c>
       <c r="L580" s="47"/>
     </row>
-    <row r="581" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="50">
         <v>43712.648180833334</v>
       </c>
@@ -22340,7 +22342,7 @@
       </c>
       <c r="L581" s="47"/>
     </row>
-    <row r="582" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="50">
         <v>43713.424205613424</v>
       </c>
@@ -22374,7 +22376,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="583" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="50">
         <v>43713.425145335648</v>
       </c>
@@ -22408,7 +22410,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="584" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="50">
         <v>43713.435373171291</v>
       </c>
@@ -22440,7 +22442,7 @@
       </c>
       <c r="L584" s="47"/>
     </row>
-    <row r="585" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="50">
         <v>43713.4464271412</v>
       </c>
@@ -22472,7 +22474,7 @@
       </c>
       <c r="L585" s="47"/>
     </row>
-    <row r="586" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="50">
         <v>43713.450989293982</v>
       </c>
@@ -22506,7 +22508,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="587" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="50">
         <v>43713.464215254629</v>
       </c>
@@ -22538,7 +22540,7 @@
       </c>
       <c r="L587" s="47"/>
     </row>
-    <row r="588" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="50">
         <v>43713.481925486107</v>
       </c>
@@ -22572,7 +22574,7 @@
       </c>
       <c r="L588" s="47"/>
     </row>
-    <row r="589" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="50">
         <v>43713.543691203704</v>
       </c>
@@ -22606,7 +22608,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="590" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="50">
         <v>43713.556214594908</v>
       </c>
@@ -22640,7 +22642,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="591" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="50">
         <v>43713.55751481482</v>
       </c>
@@ -22674,7 +22676,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="592" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="50">
         <v>43713.59901273148</v>
       </c>
@@ -22708,7 +22710,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="593" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="50">
         <v>43713.602299502316</v>
       </c>
@@ -22743,6 +22745,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P593">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="CAR-072"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1"/>
     <hyperlink ref="G6" r:id="rId2"/>

--- a/0 - Field Data Sheets/Weir Calibration Field Form 2019 CURRENT 08_31_2019.xlsx
+++ b/0 - Field Data Sheets/Weir Calibration Field Form 2019 CURRENT 08_31_2019.xlsx
@@ -2168,7 +2168,7 @@
         <xdr:cNvPr id="2" name="EsriDoNotEdit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2517,7 +2517,7 @@
   <dimension ref="A1:W593"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B442" sqref="B442"/>
     </sheetView>
   </sheetViews>
